--- a/apis/LLM Inference APIs - Latency.xlsx
+++ b/apis/LLM Inference APIs - Latency.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bstra\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89C5B82D-FCB3-44C9-99FB-470ED952C5F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{461EA57B-A310-4497-8BB0-7AF262FBD5B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{9E568F97-4008-45DA-B7C2-6DA5DF6022E4}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="18">
   <si>
     <t>Deep Infra</t>
   </si>
@@ -853,25 +853,28 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Llama 2 70B'!$A$2:$A$7</c:f>
+              <c:f>'Llama 2 70B'!$A$2:$A$8</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>Anyscale</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Deep Infra</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Fireworks AI</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Groq</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Lepton AI</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>NVIDIA AI</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>OctoAI</c:v>
                 </c:pt>
               </c:strCache>
@@ -879,26 +882,29 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Llama 2 70B'!$B$2:$B$7</c:f>
+              <c:f>'Llama 2 70B'!$B$2:$B$8</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>9.1300000000000008</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>18.116666666666664</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>2.1533333333333338</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>2.4233333333333333</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>7.7033333333333331</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>7.6633333333333331</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>25.83666666666667</c:v>
                 </c:pt>
               </c:numCache>
@@ -996,25 +1002,28 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>'Llama 2 70B'!$A$2:$A$7</c:f>
+              <c:f>'Llama 2 70B'!$A$2:$A$8</c:f>
               <c:strCache>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>Anyscale</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>Deep Infra</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>Fireworks AI</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>Groq</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>Lepton AI</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>NVIDIA AI</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>OctoAI</c:v>
                 </c:pt>
               </c:strCache>
@@ -1022,26 +1031,29 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Llama 2 70B'!$C$2:$C$7</c:f>
+              <c:f>'Llama 2 70B'!$C$2:$C$8</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>8.9033333333333342</c:v>
                 </c:pt>
                 <c:pt idx="1">
+                  <c:v>16.923333333333336</c:v>
+                </c:pt>
+                <c:pt idx="2">
                   <c:v>2.0500000000000003</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>2.4600000000000004</c:v>
                 </c:pt>
-                <c:pt idx="3">
+                <c:pt idx="4">
                   <c:v>9.7266666666666683</c:v>
                 </c:pt>
-                <c:pt idx="4">
+                <c:pt idx="5">
                   <c:v>7.6966666666666663</c:v>
                 </c:pt>
-                <c:pt idx="5">
+                <c:pt idx="6">
                   <c:v>22.810000000000002</c:v>
                 </c:pt>
               </c:numCache>
@@ -3419,13 +3431,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>179070</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>23</xdr:row>
+      <xdr:row>24</xdr:row>
       <xdr:rowOff>179070</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -4040,7 +4052,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{213D63F0-3546-44D0-846A-5E3E66090F78}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4085,11 +4097,11 @@
         <v>3</v>
       </c>
       <c r="B2" s="1">
-        <f>AVERAGE(D2:F2)</f>
+        <f t="shared" ref="B2:B8" si="0">AVERAGE(D2:F2)</f>
         <v>9.1300000000000008</v>
       </c>
       <c r="C2" s="1">
-        <f>AVERAGE(G2:I2)</f>
+        <f t="shared" ref="C2:C8" si="1">AVERAGE(G2:I2)</f>
         <v>8.9033333333333342</v>
       </c>
       <c r="D2" s="1">
@@ -4113,161 +4125,192 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="B3" s="1">
-        <f>AVERAGE(D3:F3)</f>
-        <v>2.1533333333333338</v>
+        <f t="shared" si="0"/>
+        <v>18.116666666666664</v>
       </c>
       <c r="C3" s="1">
-        <f>AVERAGE(G3:I3)</f>
-        <v>2.0500000000000003</v>
+        <f t="shared" si="1"/>
+        <v>16.923333333333336</v>
       </c>
       <c r="D3" s="1">
-        <v>2.04</v>
+        <v>15.41</v>
       </c>
       <c r="E3" s="1">
-        <v>2.11</v>
+        <v>20.7</v>
       </c>
       <c r="F3" s="1">
-        <v>2.31</v>
+        <v>18.239999999999998</v>
       </c>
       <c r="G3" s="1">
-        <v>1.95</v>
+        <v>14.89</v>
       </c>
       <c r="H3" s="1">
-        <v>2.1800000000000002</v>
+        <v>18.2</v>
       </c>
       <c r="I3" s="1">
-        <v>2.02</v>
+        <v>17.68</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B4" s="1">
-        <f>AVERAGE(D4:F4)</f>
-        <v>2.4233333333333333</v>
+        <f t="shared" si="0"/>
+        <v>2.1533333333333338</v>
       </c>
       <c r="C4" s="1">
-        <f>AVERAGE(G4:I4)</f>
-        <v>2.4600000000000004</v>
+        <f t="shared" si="1"/>
+        <v>2.0500000000000003</v>
       </c>
       <c r="D4" s="1">
-        <v>2.66</v>
+        <v>2.04</v>
       </c>
       <c r="E4" s="1">
-        <v>2.71</v>
+        <v>2.11</v>
       </c>
       <c r="F4" s="1">
-        <v>1.9</v>
+        <v>2.31</v>
       </c>
       <c r="G4" s="1">
-        <v>2.11</v>
+        <v>1.95</v>
       </c>
       <c r="H4" s="1">
-        <v>2.71</v>
+        <v>2.1800000000000002</v>
       </c>
       <c r="I4" s="1">
-        <v>2.56</v>
+        <v>2.02</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B5" s="1">
-        <f>AVERAGE(D5:F5)</f>
-        <v>7.7033333333333331</v>
+        <f t="shared" si="0"/>
+        <v>2.4233333333333333</v>
       </c>
       <c r="C5" s="1">
-        <f>AVERAGE(G5:I5)</f>
-        <v>9.7266666666666683</v>
+        <f t="shared" si="1"/>
+        <v>2.4600000000000004</v>
       </c>
       <c r="D5" s="1">
-        <v>7.53</v>
+        <v>2.66</v>
       </c>
       <c r="E5" s="1">
-        <v>7.16</v>
+        <v>2.71</v>
       </c>
       <c r="F5" s="1">
-        <v>8.42</v>
+        <v>1.9</v>
       </c>
       <c r="G5" s="1">
-        <v>12.85</v>
+        <v>2.11</v>
       </c>
       <c r="H5" s="1">
-        <v>9.14</v>
+        <v>2.71</v>
       </c>
       <c r="I5" s="1">
-        <v>7.19</v>
+        <v>2.56</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1">
-        <f>AVERAGE(D6:F6)</f>
-        <v>7.6633333333333331</v>
+        <f t="shared" si="0"/>
+        <v>7.7033333333333331</v>
       </c>
       <c r="C6" s="1">
-        <f>AVERAGE(G6:I6)</f>
-        <v>7.6966666666666663</v>
+        <f t="shared" si="1"/>
+        <v>9.7266666666666683</v>
       </c>
       <c r="D6" s="1">
-        <v>8.2100000000000009</v>
+        <v>7.53</v>
       </c>
       <c r="E6" s="1">
-        <v>7.83</v>
+        <v>7.16</v>
       </c>
       <c r="F6" s="1">
-        <v>6.95</v>
+        <v>8.42</v>
       </c>
       <c r="G6" s="1">
-        <v>7.87</v>
+        <v>12.85</v>
       </c>
       <c r="H6" s="1">
-        <v>8.18</v>
+        <v>9.14</v>
       </c>
       <c r="I6" s="1">
-        <v>7.04</v>
+        <v>7.19</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="1">
+        <f t="shared" si="0"/>
+        <v>7.6633333333333331</v>
+      </c>
+      <c r="C7" s="1">
+        <f t="shared" si="1"/>
+        <v>7.6966666666666663</v>
+      </c>
+      <c r="D7" s="1">
+        <v>8.2100000000000009</v>
+      </c>
+      <c r="E7" s="1">
+        <v>7.83</v>
+      </c>
+      <c r="F7" s="1">
+        <v>6.95</v>
+      </c>
+      <c r="G7" s="1">
+        <v>7.87</v>
+      </c>
+      <c r="H7" s="1">
+        <v>8.18</v>
+      </c>
+      <c r="I7" s="1">
+        <v>7.04</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="1">
-        <f>AVERAGE(D7:F7)</f>
+      <c r="B8" s="1">
+        <f t="shared" si="0"/>
         <v>25.83666666666667</v>
       </c>
-      <c r="C7" s="1">
-        <f>AVERAGE(G7:I7)</f>
+      <c r="C8" s="1">
+        <f t="shared" si="1"/>
         <v>22.810000000000002</v>
       </c>
-      <c r="D7" s="1">
+      <c r="D8" s="1">
         <v>24.15</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E8" s="1">
         <v>27.17</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F8" s="1">
         <v>26.19</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G8" s="1">
         <v>25</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H8" s="1">
         <v>23.09</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I8" s="1">
         <v>20.34</v>
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:B7">
+  <conditionalFormatting sqref="B2:B8">
     <cfRule type="dataBar" priority="2">
       <dataBar>
         <cfvo type="min"/>
@@ -4281,7 +4324,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C2:C7">
+  <conditionalFormatting sqref="C2:C8">
     <cfRule type="dataBar" priority="1">
       <dataBar>
         <cfvo type="min"/>
@@ -4309,7 +4352,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>B2:B7</xm:sqref>
+          <xm:sqref>B2:B8</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{6124F657-05C5-4E7B-A3DA-C446B355F4BC}">
@@ -4320,7 +4363,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>C2:C7</xm:sqref>
+          <xm:sqref>C2:C8</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
